--- a/terms.xlsx
+++ b/terms.xlsx
@@ -8,11 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Terms" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Terms" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Terms!$A$1:$B$220</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Terms!$A$1:$B$224</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Terms!$A$1:$B$224</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -35,13 +34,25 @@
     <t xml:space="preserve">Adjacency Matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Define an adjancency matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjoint Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define an adjoint matrix</t>
+    <t xml:space="preserve">Adjacency is the graph theoretic representation of the fact that two entities, represented by graph nodes, are directly related, tied, or connected with one another. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leontief Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leontief A matrix is a direct requirements table calculated from an industry-by-industry transactions table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusion Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A method for evaluating forecasts by comparing the frequencies of predicted against observed outcomes (Also Contingency Table or Prediction-Realization Table) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A square (n x n) matrix representing the transition probabilities of a stochastic system (e.g. a Markov Chain)</t>
   </si>
 </sst>
 </file>
@@ -123,25 +134,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,6 +168,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -160,23 +184,129 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ213"/>
+  <dimension ref="A1:AMJ141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="88.11"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -186,34 +316,47 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="AMH1" s="1"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="4"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="0"/>
+      <c r="B141" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B220"/>
+  <autoFilter ref="A1:B224"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
